--- a/biology/Zoologie/Elibia_dolichus/Elibia_dolichus.xlsx
+++ b/biology/Zoologie/Elibia_dolichus/Elibia_dolichus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elibia dolichus est une espèce d'insectes lépidoptères de la famille des Sphingidae, sous-famille des Macroglossinae, tribu des Macroglossini, sous-tribu des Macroglossina et du genre Elibia. C'est l'espèce type pour le genre.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure de l'imago est de 120–146 mm.
 			Elibia dolichus ♂ MHNT
@@ -546,7 +560,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 L'espèce est connue au Népal, au nord-est de l'Inde, au Bangladesh, en Thaïlande, dans le sud de la Chine, en Malaisie péninsulaire, Sarawak, Sabah, en Indonésie (Sumatra, Kalimantan, Java), aux Philippines (île de Palawan).</t>
@@ -577,7 +593,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles se nourrissent sur les genres Saurauia, Leea, Cayratia et Tetrastigma.
 </t>
@@ -608,12 +626,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Elibia dolichus a été décrite par l'entomologiste britannique John Obadiah Westwood en 1847, sous le nom initial de Sphinx dolichus[1].
-Synonymie
-Sphinx dolichus Westwood, 1847 Protonyme
-Elibia linigera Boisduval, 1875[2].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Elibia dolichus a été décrite par l'entomologiste britannique John Obadiah Westwood en 1847, sous le nom initial de Sphinx dolichus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Elibia_dolichus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elibia_dolichus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sphinx dolichus Westwood, 1847 Protonyme
+Elibia linigera Boisduval, 1875.</t>
         </is>
       </c>
     </row>
